--- a/maketables/NVDB mapping av datatyper til ITS direktivet-V3.xlsx
+++ b/maketables/NVDB mapping av datatyper til ITS direktivet-V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\leveranser\nvdbtransportportal\maketables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7639BF1D-0049-43AC-9E82-DFA0BD23D0E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8879777F-EE6D-4335-96B2-E5018DD074E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{19C7E6AD-2D7E-4F7C-B15C-9ACACF07CFB5}"/>
   </bookViews>
@@ -451,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +502,22 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -550,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -568,6 +584,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,20 +607,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TekstSylinder 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FE7A09-5B19-400F-B6C7-1B4731EF5F39}"/>
@@ -613,8 +632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8629649" y="723899"/>
-          <a:ext cx="5648326" cy="3514725"/>
+          <a:off x="8791574" y="390524"/>
+          <a:ext cx="9077326" cy="7096126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,11 +682,43 @@
         <a:p>
           <a:r>
             <a:rPr lang="nb-NO" sz="1100"/>
-            <a:t>Vi har delt i to hoveddatasett</a:t>
+            <a:t>Vi har delt i </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100"/>
+            <a:t> hoveddatasett</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
-            <a:t> grupper( mobilitetstilbud og veg og vegregulering). </a:t>
+            <a:t> grupper( mobilitetstilbud og veg og vegregulering </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>og trafikkinformasjon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t>). </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -682,7 +733,27 @@
         <a:p>
           <a:r>
             <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
-            <a:t>Det viktigste nå er å få på plass disse to hovedgruppene, slik at vi kan ha to lenker i "transporportal.no", dvs to "LOS kategorier", som  leder til bare de datasettene som er beskrevet under hver hovedgruppe. Alle andre datasett i NVDB er ikke synlige for en bruker som går inn via transportportal.no.  </a:t>
+            <a:t>Det viktigste nå er å få på plass disse hovedgruppene, slik at vi kan ha to lenker i "transporportal.no", dvs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t> "LOS kategorier", som  leder til bare de datasettene som er beskrevet under hver hovedgruppe. Alle andre datasett i NVDB er ikke synlige for en bruker som går inn via transportportal.no.  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -747,11 +818,250 @@
           </a:r>
           <a:r>
             <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
-            <a:t> B og C. det betyr at datasett naturlig kan tilhøre begge gruppene. Kan dere sette begge taggene ( eller en felles tag) slik at datasettene dukker opp under begge kategorier i transportportal.no?</a:t>
-          </a:r>
+            <a:t> B og C. det betyr at datasett naturlig kan tilhøre begge gruppene. Kan dere sette begge taggene ( eller en felles tag) slik at datasettene dukker opp under begge kategorier i transportportal.no? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Revisjon 3, Jan fra NVDB </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t>Hver av de tre kategoriene har fått sin egen side under </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>http://nvdbtransportportal.vegdata.no/</a:t>
+          </a:r>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="nb-NO" sz="1100"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100"/>
+            <a:t>transportportal.no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t> kan dermed lenke direkte til  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>http://nvdbtransportportal.vegdata.no/los1.html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO"/>
+            <a:t> (mobilitetstilbud)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>http://nvdbtransportportal.vegdata.no/los2.html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO"/>
+            <a:t> (trafikkinformasjon) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>http://nvdbtransportportal.vegdata.no/los3.html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO"/>
+            <a:t> (veg og</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" baseline="0"/>
+            <a:t> vegregulering)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t>for de tre kategoriene. God plan? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> tabellen til venstre så avgjør bokstaven x </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(liten x, og kun det) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i kolonne B, C og D hvorvidt NVDB objekttypen skal tas med eller ikke. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Som dere ser, har jeg tatt vekk noen objekttyper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> som inngår i NVDB vegnett, samt de dataene som Entur beskriver bedre enn NVDB gjør det. </a:t>
+          </a:r>
+          <a:endParaRPr lang="nb-NO">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Selve utlistingen er en tabell med lenke til NVDB datakatalog  samt den korte engelske teksten i kolonne E </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Description) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="nb-NO" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="nb-NO" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t>Konvertering fra dette excel-arket til de tre sidene los1, los2, los3 gjøres med </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bittelitt python-kode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nb-NO" sz="1100" baseline="0"/>
+            <a:t>. Dette regnearket kan dermed vedlikeholdes uten at det utløser behov for pirkete manuell redigering. </a:t>
+          </a:r>
           <a:endParaRPr lang="nb-NO" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1061,8 +1371,8 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1381,8 @@
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
@@ -1087,10 +1398,10 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1254,7 +1565,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1292,7 +1603,7 @@
         <v>66</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1434,7 +1745,7 @@
         <v>66</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="F27" t="s">
+      <c r="F27" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1597,7 +1908,7 @@
       <c r="D39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1853,7 +2164,7 @@
         <v>66</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="F59" t="s">
+      <c r="F59" s="8" t="s">
         <v>67</v>
       </c>
     </row>
